--- a/Formato_Acreditaciones.xlsx
+++ b/Formato_Acreditaciones.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto_Acreditacion\acreditaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947AFCFA-6D8E-48FC-976B-72D9804AB631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04813D79-7582-4009-BD58-4E1F1BB8E4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3BC6E05-3912-4C50-BE38-6FF4E8047C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NOMBRES</t>
   </si>
@@ -46,6 +47,27 @@
   </si>
   <si>
     <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>C.E</t>
+  </si>
+  <si>
+    <t>D.N.I</t>
+  </si>
+  <si>
+    <t>PAS</t>
+  </si>
+  <si>
+    <t>ALL ACCESS</t>
+  </si>
+  <si>
+    <t>CAMPO</t>
+  </si>
+  <si>
+    <t>TÉCNICO</t>
+  </si>
+  <si>
+    <t>PROVEEDOR</t>
   </si>
 </sst>
 </file>
@@ -420,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBAA9C0-D52C-480F-9363-51B96F661849}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4966" workbookViewId="0">
-      <selection activeCell="C5000" sqref="C5000"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,15 +481,72 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5000" xr:uid="{DD2F49A8-C924-4B2D-81B7-CAFB70F4129A}">
-      <formula1>"DNI,CE,PASAPORTE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5000" xr:uid="{0B18CBF5-603B-4C96-BC3F-A947293D5BE2}">
-      <formula1>"ALL ACCESS,TECNICO,CAMPO,PROVEEDOR"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7AD168C8-05ED-4C6A-B3B0-1AFE8EC3450F}">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C5000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C42F7FC-158A-44E8-802C-FFFEAAA50CEA}">
+          <x14:formula1>
+            <xm:f>Hoja2!$C$1:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G5000</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0198A410-72C3-408D-82E2-23C3E745EE4D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Formato_Acreditaciones.xlsx
+++ b/Formato_Acreditaciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto_Acreditacion\acreditaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04813D79-7582-4009-BD58-4E1F1BB8E4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6C65B2-BD22-4AC4-93AA-B26AEE24EB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3BC6E05-3912-4C50-BE38-6FF4E8047C4E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>NOMBRES</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>PROVEEDOR</t>
+  </si>
+  <si>
+    <t>SEGURIDAD</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,18 +488,30 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7AD168C8-05ED-4C6A-B3B0-1AFE8EC3450F}">
           <x14:formula1>
             <xm:f>Hoja2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C5000</xm:sqref>
+          <xm:sqref>C3:C5000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C42F7FC-158A-44E8-802C-FFFEAAA50CEA}">
           <x14:formula1>
             <xm:f>Hoja2!$C$1:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G5000</xm:sqref>
+          <xm:sqref>G3:G5000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{188FE6FF-1E38-4D1A-9A07-C7742D2E7F68}">
+          <x14:formula1>
+            <xm:f>Hoja2!$C$1:$C$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{15E1D09F-7FFF-4B70-B2E0-47540A545C45}">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$1:$A$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -506,10 +521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0198A410-72C3-408D-82E2-23C3E745EE4D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +561,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Formato_Acreditaciones.xlsx
+++ b/Formato_Acreditaciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6C65B2-BD22-4AC4-93AA-B26AEE24EB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1D1033-6CD7-41E6-B7BC-9E37734681BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3BC6E05-3912-4C50-BE38-6FF4E8047C4E}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>NUMERO_DOCUMENTO</t>
   </si>
   <si>
-    <t>CARGO</t>
-  </si>
-  <si>
     <t>AREA_DE_TRABAJO</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>SEGURIDAD</t>
+  </si>
+  <si>
+    <t>CARGO Y O FUNCIÓN</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -534,36 +534,36 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
